--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1183225.408779731</v>
+        <v>-1185906.271843139</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>64.04359393528532</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>133.7002017586215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>65.62473928264356</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>17.4277581536956</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>275.8425168900361</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>74.06694201071274</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>129.2551558877921</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>98.83266417568608</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>66.72510631028879</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>338.3954839571876</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.98978918939175</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>96.44646126051011</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>213.9987150475857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>67.10592483573207</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>30.65104903283402</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>176.5022639606273</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445521</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>766.2918353600403</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="C2" t="n">
-        <v>766.2918353600403</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="D2" t="n">
-        <v>766.2918353600403</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="E2" t="n">
-        <v>766.2918353600403</v>
+        <v>419.9964294949635</v>
       </c>
       <c r="F2" t="n">
         <v>355.3059305704328</v>
@@ -4322,19 +4322,19 @@
         <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1156.431167335852</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y2" t="n">
-        <v>766.2918353600403</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1048.115628253778</v>
+        <v>1590.995858314207</v>
       </c>
       <c r="C4" t="n">
-        <v>879.1794453258713</v>
+        <v>1422.0596753863</v>
       </c>
       <c r="D4" t="n">
-        <v>729.0628059135355</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="E4" t="n">
-        <v>581.1497123311424</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>434.259764833232</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>266.2733001415106</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>117.5344020050168</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253778</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.115628253778</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>1048.115628253778</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>1048.115628253778</v>
+        <v>1790.248119259291</v>
       </c>
       <c r="Y4" t="n">
-        <v>1048.115628253778</v>
+        <v>1772.644323144447</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1716.437901607243</v>
+        <v>1966.993846941859</v>
       </c>
       <c r="C5" t="n">
-        <v>1347.475384666831</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D5" t="n">
-        <v>989.2096860600805</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E5" t="n">
-        <v>603.4214334618362</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>192.4355286722286</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,55 +4562,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583054</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583054</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1716.437901607243</v>
+        <v>2353.59368700598</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>666.9516006271326</v>
+        <v>795.6634135115715</v>
       </c>
       <c r="C7" t="n">
-        <v>498.0154176992257</v>
+        <v>626.7272305836647</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>476.6105911713289</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>328.6974975889358</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>181.8075500910254</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>181.8075500910254</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1211.05325886998</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V7" t="n">
-        <v>956.3687706640933</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W7" t="n">
-        <v>666.9516006271326</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X7" t="n">
-        <v>666.9516006271326</v>
+        <v>1016.455992655102</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.9516006271326</v>
+        <v>795.6634135115715</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1674.035030689734</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C8" t="n">
-        <v>1606.635933406614</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926625</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665545</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="Y8" t="n">
-        <v>1674.035030689734</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.9860105762135</v>
+        <v>791.0311677684842</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>622.0949848405774</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288652</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>767.0814070827656</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W10" t="n">
-        <v>767.0814070827656</v>
+        <v>1239.813297810032</v>
       </c>
       <c r="X10" t="n">
-        <v>767.0814070827656</v>
+        <v>1011.823746912014</v>
       </c>
       <c r="Y10" t="n">
-        <v>546.2888279392355</v>
+        <v>791.0311677684842</v>
       </c>
     </row>
     <row r="11">
@@ -5021,25 +5021,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.3777707160738</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C16" t="n">
-        <v>383.4415877881669</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D16" t="n">
         <v>383.4415877881669</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1472.225535624822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1182.808365587861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8188146898436</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0262355463135</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>618.4214495336224</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>470.5083559512293</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6069,19 +6069,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>702.4944101284095</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>533.5582272005026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1104.935454102179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>884.1428749586493</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6649,22 +6649,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2085.82313412342</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1796.747907467618</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.063419261731</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1252.64624922477</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.656698326753</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>803.8641191832229</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6704,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6935,28 +6935,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797186</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380735</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231133</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.4490126143853</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>224.3355197601772</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>309.069224474559</v>
       </c>
       <c r="G2" t="n">
-        <v>23.1014338204037</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>236.0308989198475</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>104.8770068749588</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.421048022933</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>38.13892827624232</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>78.31512318719918</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>134.6711151870887</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>186.7544012944542</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>40.90318636666098</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-6.983302952577993e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1238217.892107407</v>
+        <v>1238217.892107408</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1238217.892107407</v>
+        <v>1238217.892107408</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1238217.892107408</v>
+        <v>1238217.892107407</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1238217.892107408</v>
+        <v>1238217.892107407</v>
       </c>
     </row>
     <row r="10">
@@ -26314,13 +26314,13 @@
         <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
@@ -26329,7 +26329,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302513</v>
@@ -26341,7 +26341,7 @@
         <v>181607.9849302513</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52108.58832472621</v>
+        <v>52108.5883247262</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26436,25 +26436,25 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731996</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732015</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982547</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982543</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982544</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1107471.217535601</v>
+        <v>-1107831.300551319</v>
       </c>
       <c r="C6" t="n">
-        <v>-42521.37448224484</v>
+        <v>-42521.37448224472</v>
       </c>
       <c r="D6" t="n">
-        <v>-42521.37448224484</v>
+        <v>-42521.37448224475</v>
       </c>
       <c r="E6" t="n">
-        <v>-435117.2989449337</v>
+        <v>-435152.0368703692</v>
       </c>
       <c r="F6" t="n">
-        <v>72368.14267961223</v>
+        <v>72333.40475417653</v>
       </c>
       <c r="G6" t="n">
-        <v>72368.14267961223</v>
+        <v>72333.40475417656</v>
       </c>
       <c r="H6" t="n">
-        <v>72368.14267961223</v>
+        <v>72333.40475417662</v>
       </c>
       <c r="I6" t="n">
-        <v>72368.14267961205</v>
+        <v>72333.40475417653</v>
       </c>
       <c r="J6" t="n">
-        <v>-95237.03513037031</v>
+        <v>-95271.77305580598</v>
       </c>
       <c r="K6" t="n">
-        <v>72368.14267961237</v>
+        <v>72333.40475417656</v>
       </c>
       <c r="L6" t="n">
-        <v>46034.39268209093</v>
+        <v>46034.3926820911</v>
       </c>
       <c r="M6" t="n">
-        <v>-67145.18305320397</v>
+        <v>-67145.18305320386</v>
       </c>
       <c r="N6" t="n">
-        <v>65462.1106757228</v>
+        <v>65462.11067572283</v>
       </c>
       <c r="O6" t="n">
         <v>65462.11067572283</v>
       </c>
       <c r="P6" t="n">
-        <v>65462.11067572283</v>
+        <v>65462.11067572277</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33.76322733186714</v>
       </c>
       <c r="G2" t="n">
-        <v>388.4462689525503</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>39.17185592125702</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1568951983992</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>89.43037488097144</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>337.4807607622412</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>17.99635326733676</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27825,22 +27825,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>187.3944899455145</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>298.5477854607187</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>47.84245469886599</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.8421909925455</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>190.0765370760809</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28494,10 +28494,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
         <v>-1.696776052995119e-12</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,7 +33269,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,19 +33968,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,13 +34217,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>688.8020111197787</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>466.4238188159144</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>615.5326193530511</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,19 +37616,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,13 +37865,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>546.2057666753343</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
